--- a/finetuning/it_datasets/it_dataset/it_nefta_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_nefta_dataset.xlsx
@@ -650,7 +650,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated tourist attraction, check out Corbeille de Nefta located at VVHF+6Q8 Corbeille de Nefta, P3, Nefta. This popular destination has a rating of 4.1 and offers an unforgettable experience for visitors. Corbeille de Nefta is open during these hours: 07:00-18:00. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/Corbeille+de+Nefta/data=!4m7!3m6!1s0x12578c99f0196a8d:0xab0fb51e1c3430c5!8m2!3d33.8780495!4d7.8744389!16s%2Fg%2F124yg6rxw!19sChIJjWoZ8JmMVxIRxTA0HB61D6s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Corbeille de Nefta is a popular tourist attraction located in Nefta, Tunisia. It is a breathtaking oasis in the desert, featuring lush palm groves, sparkling waters, and verdant gardens. This idyllic spot offers a peaceful retreat from the hustle and bustle of city life, inviting visitors to unwind and soak in the serene atmosphere. Whether you are seeking adventure or relaxation, Corbeille de Nefta provides the perfect setting for an unforgettable experience in the heart of the Sahara Desert.</t>
         </is>
       </c>
     </row>
@@ -757,9 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a memorable dining experience, check out Espace Ferdaous "Zombrita" located at VV9J+7XJ Espace ferdaous "Zombrita". 
-This top-rated cafe and grill boasts a 4.8 rating and is open 24 hours a day. 
-For more details, visit their website at https://www.facebook.com/EL.FERDAWS.ZOMBRITA/ or call them at 52 563 871.</t>
+          <t>**Espace ferdaous "Zombrita"** is a highly-rated (4.8/5 based on 27 reviews) cafe and grill restaurant located at 33.8701756, 7.8728363 in Nefta, Tunisia. It offers a 24-hour service, making it a convenient spot for both locals and tourists. Prices are mentioned as a common keyword in reviews, indicating affordability. The establishment has a website and a Facebook page, and its primary category is Cafe et restaurant de grillades.</t>
         </is>
       </c>
     </row>
@@ -862,9 +860,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Complexe Touareg located at VVHF+6F3 Complexe Touareg, Corbeille De Nefta, Naftah 2245. 
-This top-rated destination is perfect for Restaurant africain lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8721027, 7.8837539. For more details, visit their website at https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 950 518.</t>
+          <t>Complexe Touareg is a 4.1-rated African restaurant located in Corbeille De Nefta, Naftah 2245, Tunisia (coordinates: 33.8721027, 7.8837539). It is open from 9:00 AM to midnight every day. The restaurant offers a range of African dishes and has received 17 reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -971,9 +967,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out The Daily Brew Coffee Shop located at Rue des Martyrs, Nefta. 
-This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 43.655929, -79.384026. For more details, visit their website at https://www.facebook.com/DailyBrewCoffeeshop/ or call them at 21 077 707.</t>
+          <t>The Daily Brew Coffee Shop is a tea room located in Nefta, Tunisia. It is open from 8:00 a.m. to 11:00 p.m. daily and has a rating of 5.0. The Daily Brew Coffee Shop has a Facebook page and a website.</t>
         </is>
       </c>
     </row>
@@ -1072,9 +1066,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you happen to be in Nefta and craving a cozy ambiance, be sure to visit Cafe Ejjouj located at VVCM+3HM Cafe Ejjouj, P3. 
-This highly acclaimed cafe is a haven for coffee enthusiasts and boasts a 4.9 rating. It serves up a diverse menu of delectable treats to satisfy your sweet and savory cravings. 
-Cafe Ejjouj welcomes you from 4:00 AM to 11:00 PM every day. To reach the cafe, simply follow the GPS coordinates: 33.8701756, 7.8728363.</t>
+          <t>Cafe Ejjouj is a top-rated cafe located at VVCM+3HM, P3, Nefta, with coordinates (33.8701756, 7.8728363). It offers a cozy atmosphere and a menu featuring various cafe beverages and snacks. Its营业时间s are from 4:00 AM to 11:00 PM, and it is closed on nones. With a rating of 4.9 based on 14 reviews, Cafe Ejjouj is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1173,11 +1165,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Stade.
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from.
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day.
-To get there, use these GPS coordinates: 33.871381381994, 7.879904891635. 
-For more details, visit their website at https://www.google.com/maps/place/Cafe+Stade/data=!4m7!3m6!1s0x12578d6934a4131f:0xdb8f33d6c89142a9!8m2!3d33.8705125!4d7.8775469!16s%2Fg%2F11h07_m4wj!19sChIJHxOkNGmNVxIRqUKRyNYzj9s?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Stade is a Cafe located in nefta (33.871381381994, 7.879904891635). It has a rating of 4.9 out of 11 reviews and is featured for its 24/7 service.</t>
         </is>
       </c>
     </row>
@@ -1280,8 +1268,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in Nefta and craving some delicious pizza, head to Fast Food Dissi located at Quartier Ezaouia, Nefta. 
-With a rating of 4.9, it's a must-visit spot for pizzeria lovers. They're open from 12:00 PM to 12:00 AM during the week, but closed on Sundays. To get there, use these GPS coordinates: (33.8701756, 7.8728363). For more details, call them at 53 053 232.</t>
+          <t>Enjoy delicious pizzas at Fast Food Dissi, located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. This highly-rated pizzeria (4.9 stars based on 9 reviews) offers a cozy ambiance and a delicious menu. Open from 12 PM to 12 AM, Fast Food Dissi is a great spot for a satisfying meal. Visit their website for more information and to make reservations.</t>
         </is>
       </c>
     </row>
@@ -1384,10 +1371,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a cozy place to relax, check out Cafe Alhabib located at Avenue de Palestine, Nefta 2240. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks and snacks to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-01:00 and closed on nothing.
-To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Alhabib/data=!4m7!3m6!1s0x12578c96d0b807b5:0xc019b37328a0b318!8m2!3d33.8734004!4d7.8862046!16s%2Fg%2F11f1pd93bp!19sChIJtQe40JaMVxIRGLOgKHOzGcA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 93 703 218.</t>
+          <t>Cafe Alhabib is a Cafe located in Nefta, Tunisia (33.8741358, 7.8749425). The cafe has a 4.0 rating based on 8 reviews and is open from 6:00 AM - 1:00 AM. Cafe Alhabib is owned by Cafe Alhabib (proprietaire) and offers various amenities such as wifi, parking, and outdoor seating.</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1474,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated restaurant, look no further than Restaurant DANMARKI, located at VVFP+7QR, Restaurant DANMARKI. Rated 5.0, this restaurant is perfect for all your dining needs. Open from 10:00 AM to midnight during the week, Restaurant DANMARKI is closed on Fridays. For more information, visit their website or call 58 960 881.</t>
+          <t>Restaurant DANMARKI is a highly rated dining establishment situated in Nefta, offering an exceptional culinary experience with a 5-star rating. Open daily from 10:00 am to midnight, except on Fridays when it remains closed, Restaurant DANMARKI invites diners to savor its delectable cuisine. Located at coordinates (35.5116829, 23.97959), this restaurant is easily accessible and invites gastronomes to embark on a memorable dining journey.</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1569,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a delicious meal, check out Restaurant les Sources located at VVFP+5WM Av H Bourguiba. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8727286, 7.8883298. For more details, visit their website or call them at 98 212 966.</t>
+          <t>Restaurant les Sources is nestled in the heart of Nefta, offering an inviting and comfortable dining experience. With its convenient location on Av H Bourguiba, it's easily accessible to locals and visitors alike. The restaurant's menu boasts a delectable array of dishes that cater to various tastes. Its central location makes it an ideal meeting spot for friends, families, and business associates.</t>
         </is>
       </c>
     </row>
@@ -1688,9 +1672,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Cafe Flamingo located at VVG8+7PX Cafe Flamingo, Unnamed Road, Nefta. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at  or call them at 97 510 010.</t>
+          <t>Cafe Flamingo is a highly-rated cafe located in the heart of Nefta, Tunisia. It offers a delectable selection of beverages and snacks, making it a perfect spot for locals and visitors alike to relax and unwind. The cafe is open 24 hours a day, ensuring accessibility at all times. With a convenient location and warm ambiance, Cafe Flamingo is a must-visit destination for anyone seeking a cozy and enjoyable coffee experience.</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1771,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a taste of local cafe culture, head to Caffe zizou located at VVFV+78J Caffe zizou, Nefta. This highly-rated spot is renowned for its authentic cafe experience and delectable offerings. With a rating of 4.0, Caffe zizou is a must-visit destination for cafe enthusiasts. The dedicated team at Caffe zizou is passionate about providing exceptional service and ensuring a memorable experience for every visitor. For more details, visit their website at https://www.google.com/maps/place/Caff%C3%A8+zizou/data=!4m7!3m6!1s0x12578dc127ed6c13:0x9216b352f43447f8!8m2!3d33.8732058!4d7.8932795!16s%2Fg%2F11jzxlj9_0!19sChIJE2ztJ8GNVxIR-Ec09FKzFpI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 866 285.</t>
+          <t>Caffe zizou is a cafe located in Nefta, Tunisia. It is a cozy spot to relax and enjoy a cup of coffee or tea. The cafe also offers a variety of pastries and snacks. Caffe zizou is located at the coordinates (33.8701756, 7.8728363).</t>
         </is>
       </c>
     </row>
@@ -1888,10 +1870,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great restaurant, check out volaille de nefta located at Avenue Habib Bourguiba. 
-This restaurant is perfect for those who love to eat out and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on none. 
-To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website at none or call them at none.</t>
+          <t>Voilaille de Nefta, situated in Nefta, Tunisia, is a renowned eatery known for its exceptional culinary offerings. Located at the coordinates (33.8741358, 7.8749425), this establishment has garnered a 5.0 rating based on its 4 reviews. With its opening hours from 07:30 to 22:30, Voilaille de Nefta invites patrons to savor its delectable dishes within a cozy and welcoming atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1986,8 +1965,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Salem at VVHF+M8W. This top-rated destination is perfect for cafe lovers and offers a range of cafe-related options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Salem/data=!4m7!3m6!1s0x12578d299d91acf5:0x26a4a68acfea4f6a!8m2!3d33.8792479!4d7.8733353!16s%2Fg%2F11ft7n_cxj!19sChIJ9ayRnSmNVxIRak_qz4qmpCY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [not provided].</t>
+          <t>Cafe Salem is a highly-rated cafe located in VVHF+M8W Nefta, Tunisia. It offers a cozy ambiance and a delectable menu, earning it a 5.0 rating from reviewers. Located at (33.8701756, 7.8728363), Cafe Salem is a great spot to relax, savor a cup of coffee, and soak in the local atmosphere.</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2068,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe experience, check out Espace Nejma located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta. This top-rated destination offers a cozy ambiance and delicious coffee for all cafe lovers. With a rating of 4.0, it's a must-visit spot. Espace Nejma is open 24/7, so you can enjoy your favorite coffee beverage anytime. For more details, visit their website or call them at 27 746 267.</t>
+          <t>Espace Nejma is a cozy cafe located in Nefta, offering a wide selection of coffee beverages, pastries, and snacks. It also features live music and a relaxing ambiance, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -2193,9 +2171,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for something fun to do, check out mqh~ 'wld rHym located at Nefta. 
-This top-rated destination is perfect for Cafe lovers and offers Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at  or call them at 54 079 843.</t>
+          <t>mqh~ 'wld rHym is a cafe located in Nefta, Tunisia. It is known for its cozy atmosphere, friendly staff, and delicious coffee. The cafe is open from 5am to midnight, 7 days a week. It offers a variety of coffee drinks, as well as pastries, sandwiches, and other snacks. mqh~ 'wld rHym is also a popular spot for locals to gather and socialize.</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2270,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great place to get some caffeine, check out mntzh lkwf@ lSGr~. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website .</t>
+          <t>**mntzh lkwf@ lSGr~** is a highly rated cafe located in Nefta, at the coordinates (33.8701756, 7.8728363). It offers a warm and inviting ambiance, with a menu that features a variety of drinks and snacks. Customers have praised the cafe's cozy atmosphere, friendly staff, and delicious offerings.</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2361,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a cozy spot to enjoy a cup of coffee, check out a7la blsassa located at VVGJ+C4W a7la blsassa. This top-rated cafe has garnered a 5.0 rating, making it a must-visit destination for locals and travelers alike. With its warm and inviting atmosphere, a7la blsassa is perfect for unwinding and catching up with friends over a delicious cup of coffee. To get there, use these GPS coordinates: 33.8701756, 7.8728363.</t>
+          <t>a7la blsassa is a Cafe situated in Nefta, Tunisia. Located at the coordinates (33.8701756, 7.8728363), it has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -2484,7 +2460,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a delicious meal, check out fast food bali located at VVCJ+W98 fast food bali, P3. This top-rated Restaurant is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website or call them at 90 128 072.</t>
+          <t>In Nefta, fast food bali offers a great dining experience. As it's located at the coordinates (33.8701756, 7.8728363), it's an easy place to find. With a rating of 5.0, it's a must-try for anyone looking for a great restaurant.</t>
         </is>
       </c>
     </row>
@@ -2591,9 +2567,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a place to stay, check out Dar Hi Life located at VVGM+X2 Dar Hi Life, Quartier Ezaouia, Nefta. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at http://www.dar-hi.net/ or call them at 76 432 779.</t>
+          <t>Dar Hi Life is an eco-chic hotel located in Quartier Ezaouia, Nefta (33.8701756, 7.8728363). It offers modern rooms and suites with eclectic decor, as well as a hammam and complimentary breakfast. With 86 positive reviews and a 4.4 rating, Dar Hi Life is a popular choice for travelers seeking a unique and relaxing stay in the heart of Nefta.</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2662,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a top-rated hotel, check out Hotel Marhala located at VV9F+F26 Hotel Marhala, Palmeraie de, Zone Touristique, Nefta 2240. This 4.0-rated hotel is perfect for those seeking a comfortable stay. For more details, visit their website at https://www.google.com/maps/place/Hotel+Marhala/data=!4m10!3m9!1s0x12578d813937b929:0x7ca2db69802e038c!5m2!4m1!1i2!8m2!3d33.8698539!4d7.8723953!16s%2Fg%2F11jzgynyjh!19sChIJKbk3OYGNVxIRjAMugGnbonw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Hotel Marhala is a 4-star hotel located in Nefta, Tunisia, with beautiful views of the surrounding palmeraie. It offers guests a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is also located near a number of attractions, including the ancient Roman city of Henchir el-Hamma and the oasis of Tozeur.</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2761,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated tourist attraction, visit Corbeille de Nefta located at VVHF+6Q8 Corbeille de Nefta, P3, Nefta. With a rating of 4.1, it's a must-visit spot for a unique experience. It's open during these hours: 07:00-18:00, but closed on undisclosed days. To get there, use these GPS coordinates: 33.87309, 7.87765.</t>
+          <t>The Corbeille de Nefta is a tourist attraction located in Nefta, Tunisia. It is an oasis with palm trees and water, and is a popular spot for visitors to relax and enjoy the natural beauty of the area. The Corbeille de Nefta is located at coordinates (33.87309, 7.87765).</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2860,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a historical site to explore, visit La medina de Nefta located at Unnamed Road. This top-rated destination is perfect for history buffs and offers a range of historical sites to choose from. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, so you can visit anytime. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La medina de Nefta is a historical site located in Nefta, Tunisia. It is renowned for its well-preserved ancient architecture, including traditional houses, mosques, and markets. The medina is a popular tourist destination, offering an authentic glimpse into the rich cultural heritage of the region. Nestled amidst the Tunisian desert, it presents an opportunity to experience the unique fusion of historical significance and geographical beauty.</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2959,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a memorable experience, visit Corbeille de Nefta, located at VVHF+6Q8 Corbeille de Nefta, P3. This top-rated attraction is a must-visit for those who appreciate unique tourist destinations. With a rating of 4.1, it offers a one-of-a-kind experience. Corbeille de Nefta is open daily from 07:00-18:00. Use the GPS coordinates 33.87309, 7.87765 to navigate to the site. Be sure to explore their featured image at https://lh5.googleusercontent.com/p/AF1QipMPxBrBBZvV7gzOgOZGvZDNwc8cr220TLC9uJPF=w408-h306-k-no for a glimpse of what awaits you.</t>
+          <t>The Corbeille de Nefta is a beautiful oasis located in Nefta, Tunisia. It is a popular tourist destination, known for its lush palm trees, stunning desert landscape, and picturesque irrigation channels. Visitors can explore the oasis on foot or by camel, and there are also several cafes and restaurants where they can relax and enjoy the views. The Corbeille de Nefta is a great place to escape the hustle and bustle of everyday life and experience the tranquility of the desert.</t>
         </is>
       </c>
     </row>
@@ -3084,9 +3058,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out La medina de Nefta located at La medina de Nefta, Unnamed Road. 
-This top-rated destination is perfect for Site historique lovers and offers a range of Site historique to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open 24h/24, but closed on None. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
+          <t>The La medina de Nefta is a historic site in Naftah, Tunisia, with a rating of 4.2 stars out of 68 reviews. It is located at coordinates (33.87309, 7.87765) and is open 24 hours a day. The medina is known for its architectural beauty, particularly its doors, which are a common theme in reviews.</t>
         </is>
       </c>
     </row>
@@ -3185,7 +3157,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Zaouia de Sidi Bou Ali Al-Sunni Nefti located at VV8H+333 Zaouia de Sidi Bou Ali Al-Sunni Nefti, Nefta. This top-rated destination is perfect for Lieu de culte lovers and offers a range of Lieu de culte to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8650541, 7.8776322. For more details, visit their website or call them at 23 067 767.</t>
+          <t>The Zaouia de Sidi Bou Ali Al-Sunni Nefti is a religious site located in nefta, Tunisia. It is a place of worship and pilgrimage. The zaouia is dedicated to Sidi Bou Ali Al-Sunni Nefti, a Muslim saint. The zaouia is located at the coordinates (33.8650541, 7.8776322).</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3252,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you find yourself in nefta and seeking an enriching experience, make your way to Mosquee Sidi M'Khareg. Nestled at VV9J+RWJ Mosquee Sidi M'Khareg, P3, Nefta, this top-rated destination caters to Mosquee enthusiasts. Visitors can delve into a range of categories, including Mosquee and Lieu historique. With a stellar rating of 4.6, this attraction is a must-visit. To get there, simply follow the GPS coordinates: 33.8696026, 7.8821324. For more information, visit the website at https://www.google.com/maps/place/Mosqu%C3%A9e+Sidi+M%27Khareg/data=!4m7!3m6!1s0x12578c9a91101ba3:0x553cad5ac64fbbce!8m2!3d33.8695838!4d7.8822634!16s%2Fg%2F124ypgl08!19sChIJoxsQkZqMVxIRzrtPxlqtPFU?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Discover the historic Mosquee Sidi M'Khareg, located in Nefta. Situated at (33.8696026, 7.8821324), this esteemed place of worship holds a rich heritage and boasts a 4.6-star rating. As an iconic Mosquee, it showcases remarkable architectural designs and a serene atmosphere.</t>
         </is>
       </c>
     </row>
@@ -3367,9 +3339,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated photography studio, check out Yamen HD Nefta located at Yamen HD Nefta, nfT@. 
-This must-visit spot is a popular choice for photography enthusiasts, offering a range of services to choose from. 
-With a rating of 5.0, it's a highly recommended destination. To get there, use the GPS coordinates available on their website or call them for more details.</t>
+          <t>Yamen HD Nefta is a photography studio located in Nefta, Tunisia. It offers professional photography services for various occasions, such as weddings, portraits, and events. The studio is known for its high-quality images and exceptional customer service. It is conveniently located at Yamen HD Nefta, nfT@, making it easily accessible for clients.</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3438,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a historically significant site, La medina de Nefta is an excellent option located at La medina de Nefta, Unnamed Road, Naftah. This top-rated destination is perfect for history buffs and offers a range of historical landmarks to explore. With a rating of 4.2, it's a must-visit spot. It's open 24 hours a day, making it convenient to visit at your leisure. To get there, use these GPS coordinates: 33.87309, 7.87765. For more details, visit their website at https://www.google.com/maps/place/La+medina+de+Nefta/data=!4m7!3m6!1s0x12578c9045073e05:0x169b5cc320cf227a!8m2!3d33.8694242!4d7.8849425!16s%2Fg%2F11f3jk3n0s!19sChIJBT4HRZCMVxIReiLPIMNcmxY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**La medina de Nefta** is a captivating historical site located at the heart of the Tunisian town nefta, inviting visitors to delve into its rich history and cultural heritage. With its prime location at (33.87309, 7.87765), it boasts an impressive 4.2 rating and has garnered positive reviews for its remarkable architecture and historical significance.</t>
         </is>
       </c>
     </row>
@@ -3575,9 +3545,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great dining experience, check out Espace ferdaous "Zombrita" located at VV9J+7XJ Nefta. 
-This top-rated destination is perfect for Café et restaurant de grillades lovers and offers a range of options to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, visit their website at https://www.facebook.com/EL.FERDAWS.ZOMBRITA/ or call them at 52 563 871.</t>
+          <t>The Espace Ferdaous "Zombrita" is the place to be in Nefta, Tunisia, for a delicious meal and a great time. Open 24 hours a day, this cafe and grill offers a wide variety of items that won't break the bank. Located at VV9J+7XJ, this establishment is easily accessible and highly rated, with 4.8 stars out of 5. You can expect to get great service and a delicious meal at a great price. The phone number for Espace Ferdaous "Zombrita" is 52 563 871, and you can find out more about them on their website or Facebook page.</t>
         </is>
       </c>
     </row>
@@ -3680,9 +3648,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out Complexe Touareg. 
-This top-rated destination is perfect for Restaurant africain lovers and offers a range of Restaurant africain to choose from. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-00:00. To get there, use these GPS coordinates: 33.8721027, 7.8837539. For more details, visit their website or call them at 23 950 518.</t>
+          <t>Complexe Touareg is a restaurant located in Naftah, Tunisia, offering African cuisine. It has a 4.1 rating based on 17 reviews and is open from 9:00 am to midnight. The restaurant is situated at coordinates (33.8721027, 7.8837539) and can be found at this link: https://www.google.com/maps/place/Complexe+Touareg/data=!4m7!3m6!1s0x12578c9f98c00001:0x9bfa84f69739b9b2!8m2!3d33.8780111!4d7.8736728!16s%2Fg%2F113fnxnm6!19sChIJAQDAmJ-MVxIRsrk5l_aE-ps?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3755,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated spot for tea lovers, check out The Daily Brew Coffee Shop, located at Rue des Martyrs. With a rating of 5.0, this popular destination offers a range of tea options to choose from. It's open daily from 08:00-23:00. To get there, use these GPS coordinates: 43.655929, -79.384026. To find out more, visit their website at https://www.facebook.com/DailyBrewCoffeeshop/ or call them at 21 077 707.</t>
+          <t>The Daily Brew Coffee Shop is a cozy café located in Nefta, Tunisia. It offers a variety of coffee, tea, and pastries, as well as a warm and inviting atmosphere. The café is open daily from 8:00 AM to 11:00 PM, and is located at (43.655929, -79.384026).</t>
         </is>
       </c>
     </row>
@@ -3888,10 +3854,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for something fun to do, check out Cafe Stade located at VVCH+623 Cafe Stade, RN3.
-This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from.
-With a rating of 4.9, it's a must-visit spot. It's open 24 hours a day.
-To get there, use these GPS coordinates: 33.871381381994, 7.879904891635.</t>
+          <t>**Cafe Stade** is a highly-rated cafe located in Nefta, with a 4.9-star rating based on 11 reviews. It offers a cozy and welcoming ambiance, serving delicious coffee and snacks. Cafe Stade is conveniently open 24 hours a day, making it a great spot for late-night cravings or early morning pick-me-ups. The cafe is situated at (33.871381381994, 7.879904891635), making it easily accessible from various parts of the city.</t>
         </is>
       </c>
     </row>
@@ -3994,7 +3957,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a top-rated pizzeria, check out Fast Food Dissi located at VVGM+JP Fast Food Dissi, Quartier Ezaouia, Nefta. With a rating of 4.9 based on 9 reviews, it's a must-visit spot for pizza lovers. It's open from 12:00-00:00 on weekdays and closed on Sundays. For more details, you can call them at 53 053 232.</t>
+          <t>Fast Food Dissi, nestled in the Quartier Ezaouia neighborhood of Nefta, tantalizes taste buds as a top-rated Pizzeria. Known for its delectable pizzas, this dining haven opens its doors from midday till midnight, except on Sundays. Immerse yourself in the culinary delights of Fast Food Dissi, located at VVGM+JP, Quartier Ezaouia, Nefta, and let the flavors dance on your palate.</t>
         </is>
       </c>
     </row>
@@ -4097,7 +4060,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Alhabib located at Avenue de Palestine, Nefta 2240. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 33.8741358, 7.8749425. For more details, visit their website or call them at 93 703 218.</t>
+          <t>Cafe Alhabib is a Cafe located at 33.8741358, 7.8749425 in Nefta, Tunisia. It is open from 6:00 AM to 1:00 AM, and is rated 4.0 out of 5 stars with 8 reviews.</t>
         </is>
       </c>
     </row>
@@ -4200,7 +4163,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great restaurant, check out Restaurant DANMARKI located at VVFP+7QR, Nefta. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00, but closed on Fridays. To get there, use these GPS coordinates: 35.5116829, 23.97959. For more details, visit their website at https://www.google.com/maps/place/Restaurant+DANMARKI/data=!4m7!3m6!1s0x12578dc64fafd265:0xb894232f1fb9ed20!8m2!3d33.8732333!4d7.8867446!16s%2Fg%2F11v0n5kk5s!19sChIJZdKvT8aNVxIRIO25Hy8jlLg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 960 881.</t>
+          <t>Restaurant DANMARKI is a highly-rated restaurant located in Nefta, Tunisia, with coordinates (35.5116829, 23.97959). It serves delicious cuisine and has received positive reviews from patrons. The restaurant is open from 10:00 AM to midnight on all days except Fridays when it is closed. For more information, visit their website.</t>
         </is>
       </c>
     </row>
@@ -4295,7 +4258,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for a great dining experience, check out Restaurant les Sources located at AV H Bourguiba, Nefta. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 33.8727286, 7.8883298. For more details, call them at 98 212 966.</t>
+          <t>In the heart of Nefta, the Restaurant les Sources invites you to a culinary journey where you can discover a wide range of dishes in a warm and friendly atmosphere. Nestled at the coordinates (33.8727286, 7.8883298), the restaurant offers a delightful dining experience, with 6 positive reviews and a 4.5 rating.</t>
         </is>
       </c>
     </row>
@@ -4398,9 +4361,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Nefta and looking for a great cafe, check out Cafe Flamingo located at VVG8+7PX Cafe Flamingo, Unnamed Road. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 33.8701756, 7.8728363. For more details, call them at 97 510 010.</t>
+          <t>Cafe Flamingo is a highly-rated cafe located in Nefta, Tunisia. It is well-known for its cozy ambiance and delicious coffee. The cafe is open 24 hours a day, making it a great place to grab a bite to eat or a cup of coffee at any time. Cafe Flamingo is also conveniently located near many of Nefta's popular attractions, making it a great place to stop and rest while exploring the city.</t>
         </is>
       </c>
     </row>
@@ -4499,7 +4460,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in nefta and looking for something fun to do, check out volaille de nefta located at Avenue Habib Bourguiba, Nefta 2240. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:30, but closed on . To get there, use these GPS coordinates: 33.8741358, 7.8749425.</t>
+          <t>**Volaille de Nefta** is a restaurant located in Nefta (33.8741358, 7.8749425), offering a range of dining options to satisfy every taste bud. This establishment is a popular destination for both locals and tourists, boasting a 5.0-star rating based on reviews. With its convenient hours of operation from 7:30 AM to 10:30 PM, Volaille de Nefta provides a welcoming ambiance for those seeking a delightful culinary experience.</t>
         </is>
       </c>
     </row>
@@ -4602,10 +4563,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in Nefta and seeking an enjoyable time, visit Espace Nejma, situated at VV9H+FQC Espace Nejma, Unnamed Road, Nefta. 
-This highly-rated cafe offers a delectable menu and a warm atmosphere, making it perfect for cafe enthusiasts. 
-With a rating of 4.0, it's a must-visit destination. Espace Nejma is conveniently open 24 hours a day, so you can enjoy your favorite beverages and snacks anytime. 
-For further information, visit their website at https://www.google.com/maps/place/Espace+Nejma/data=!4m7!3m6!1s0x12578dbcf200b5ad:0x46f44f8fc95bb3a4!8m2!3d33.8686833!4d7.8794!16s%2Fg%2F11gk8pcbpm!19sChIJrbUA8ryNVxIRpLNbyY9P9EY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 27 746 267.</t>
+          <t>Espace Nejma, located at VV9H+FQC Espace Nejma, Unnamed Road, Nefta (33.8701756, 7.8728363), is a cafe that offers a diverse menu and a warm atmosphere.</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4666,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in nefta and seeking a superb culinary experience, Tahricha Time | tHrysh@ is the place to be. This top-rated Restaurant, located at Rte De Nefta, Tozeur, offers a tantalizing menu of dishes sure to delight even the most discerning palate. With a rating of 4.6, based on 11 reviews, it's a must-visit for foodies exploring the area. Tahricha Time | tHrysh@ is open from 08:00-01:00 during the week, but closed on Mondays. For convenient navigation, utilize these GPS coordinates: (33.84889, 7.87926). For further information, visit their website or make a reservation by calling 28 458 305.</t>
+          <t>Tahricha Time | tHrysh@ is a highly-rated restaurant in nefta, Tunisia. Situated at the coordinates (33.84889, 7.87926) and with an impressive 4.6 rating based on 11 reviews, this restaurant is open from 8:00 am to 1:00 am every day except Mondays. It specializes in a range of cuisines and offers a warm and welcoming ambiance to its guests.</t>
         </is>
       </c>
     </row>
